--- a/mc/indicators/xl/gov_debt.xlsx
+++ b/mc/indicators/xl/gov_debt.xlsx
@@ -8526,88 +8526,88 @@
         <v>91</v>
       </c>
       <c r="G19" s="1">
-        <v>74.5</v>
+        <v>72.5</v>
       </c>
       <c r="H19" s="1">
-        <v>76.59999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>77.8</v>
+        <v>74.7</v>
       </c>
       <c r="J19" s="1">
-        <v>78.7</v>
+        <v>76.8</v>
       </c>
       <c r="K19" s="1">
-        <v>82.7</v>
+        <v>80.2</v>
       </c>
       <c r="L19" s="1">
-        <v>84.5</v>
+        <v>81.8</v>
       </c>
       <c r="M19" s="1">
-        <v>71.3</v>
+        <v>69.7</v>
       </c>
       <c r="N19" s="1">
-        <v>72.5</v>
+        <v>70.8</v>
       </c>
       <c r="O19" s="1">
-        <v>74.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="P19" s="1">
-        <v>78.2</v>
+        <v>76.7</v>
       </c>
       <c r="Q19" s="1">
+        <v>77</v>
+      </c>
+      <c r="R19" s="1">
+        <v>74.3</v>
+      </c>
+      <c r="S19" s="1">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="T19" s="1">
         <v>78.59999999999999</v>
       </c>
-      <c r="R19" s="1">
-        <v>75.8</v>
-      </c>
-      <c r="S19" s="1">
-        <v>73.2</v>
-      </c>
-      <c r="T19" s="1">
-        <v>79.8</v>
-      </c>
       <c r="U19" s="1">
-        <v>93.40000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="V19" s="1">
-        <v>100.6</v>
+        <v>98.5</v>
       </c>
       <c r="W19" s="1">
-        <v>104.9</v>
+        <v>102.6</v>
       </c>
       <c r="X19" s="1">
-        <v>109.3</v>
+        <v>106.7</v>
       </c>
       <c r="Y19" s="1">
-        <v>107.9</v>
+        <v>105.3</v>
       </c>
       <c r="Z19" s="1">
-        <v>107.2</v>
+        <v>104.5</v>
       </c>
       <c r="AA19" s="1">
-        <v>107</v>
+        <v>104.1</v>
       </c>
       <c r="AB19" s="1">
-        <v>109.2</v>
+        <v>106.3</v>
       </c>
       <c r="AC19" s="1">
-        <v>108.3</v>
+        <v>105.3</v>
       </c>
       <c r="AD19" s="1">
-        <v>107</v>
+        <v>104.2</v>
       </c>
       <c r="AE19" s="1">
-        <v>105.9</v>
+        <v>103.1</v>
       </c>
       <c r="AF19" s="1">
-        <v>104.6</v>
+        <v>101.9</v>
       </c>
       <c r="AG19" s="1">
-        <v>103.6</v>
+        <v>100.9</v>
       </c>
       <c r="AH19" s="1">
-        <v>102.6</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:34">
